--- a/groups/example-groups.xlsx
+++ b/groups/example-groups.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspaces\other\germinate-data-templates\groups\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sr41756\workspaces\misc\germinate-data-templates\groups\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70BB19F3-60D7-4AD1-B63C-67661DB983E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{366D76A8-47B5-4608-87A2-CF5E12EDF9DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" activeTab="2" xr2:uid="{62910211-CFC4-431D-B4FC-F3CA2666BD3A}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{62910211-CFC4-431D-B4FC-F3CA2666BD3A}"/>
   </bookViews>
   <sheets>
     <sheet name="GERMPLASM" sheetId="1" r:id="rId1"/>
@@ -770,8 +770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F785D37-07C7-4224-8898-3FD19FAA2716}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1636,7 +1636,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4879A46-4549-4770-8404-11F32C0998FE}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
